--- a/计划/事务跟踪.xlsx
+++ b/计划/事务跟踪.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="311">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2310,6 +2310,58 @@
   </si>
   <si>
     <t>参考EDAS studio文档中的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDAS控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4824,7 +4876,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4900,7 +4951,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14268,7 +14318,7 @@
   </sheetData>
   <autoFilter ref="A1:D45">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="未投入"/>
       </filters>
     </filterColumn>
@@ -15360,31 +15410,30 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="2" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
@@ -15394,16 +15443,16 @@
         <v>291</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -15413,16 +15462,16 @@
         <v>292</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -15432,16 +15481,16 @@
         <v>293</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>

--- a/计划/事务跟踪.xlsx
+++ b/计划/事务跟踪.xlsx
@@ -15,6 +15,7 @@
     <sheet name="差异对比" sheetId="29" r:id="rId6"/>
     <sheet name="前端框架" sheetId="30" r:id="rId7"/>
     <sheet name="运维管控" sheetId="31" r:id="rId8"/>
+    <sheet name="dubbo与edas差别" sheetId="33" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EDAS相关问题跟踪!$A$1:$D$28</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="348">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2364,12 +2365,124 @@
     <t>monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EDAS</t>
+  </si>
+  <si>
+    <t>服务运行环境</t>
+  </si>
+  <si>
+    <t>无限制，在任何java环境中使用，方便本地调试</t>
+  </si>
+  <si>
+    <t>只能运行在Pandora容器中</t>
+  </si>
+  <si>
+    <t>官方建议通过ali-tomcat容器启动</t>
+  </si>
+  <si>
+    <t>一个ali-tomcat内只能运行一个服务</t>
+  </si>
+  <si>
+    <t>服务交付件</t>
+  </si>
+  <si>
+    <t>无限制，可以为JAR或者WAR包</t>
+  </si>
+  <si>
+    <t>官方建议提供WAR交付件，JAR方式应该也支持，但是工具包没有公开</t>
+  </si>
+  <si>
+    <t>服务注册</t>
+  </si>
+  <si>
+    <t>支持zookeeper，redis，简易注册中心</t>
+  </si>
+  <si>
+    <t>应用需要感知，需要配置</t>
+  </si>
+  <si>
+    <t>存在注册中心（configServer），应用不需要感知，不需要配置</t>
+  </si>
+  <si>
+    <t>服务鉴权</t>
+  </si>
+  <si>
+    <t>需要环境内部可信，无鉴权</t>
+  </si>
+  <si>
+    <t>在服务注册，订阅，调用的每一个环节都有鉴权</t>
+  </si>
+  <si>
+    <t>服务调用链</t>
+  </si>
+  <si>
+    <t>可以集成第三方开发功能（京东有开源功能）</t>
+  </si>
+  <si>
+    <t>容器中实现，已经支持</t>
+  </si>
+  <si>
+    <t>服务监控中心</t>
+  </si>
+  <si>
+    <t>只支持简单的监控中心，应用需要感知，需要配置</t>
+  </si>
+  <si>
+    <t>支持功能更全面，阿里对外宣传中重点描述了这一块，不需要应用感知</t>
+  </si>
+  <si>
+    <t>服务部署</t>
+  </si>
+  <si>
+    <t>官网资料有规划，但是实际没有实现</t>
+  </si>
+  <si>
+    <t>提供EDAS控制台，ali-tomcat运行环境，pandora应用容器</t>
+  </si>
+  <si>
+    <t>服务管理中心</t>
+  </si>
+  <si>
+    <t>独立的管理中心，部署容易，方便本地调试</t>
+  </si>
+  <si>
+    <t>管理中心依托于EDAS产品管理控制台</t>
+  </si>
+  <si>
+    <t>本地调试的服务管理中心没有对外提供，号称开发中</t>
+  </si>
+  <si>
+    <t>配置中心</t>
+  </si>
+  <si>
+    <t>需要自己集成第三方功能</t>
+  </si>
+  <si>
+    <t>目前需要自己集成第三方功能</t>
+  </si>
+  <si>
+    <t>官方号称后续会提供Diamond分布式配置功能</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>开源，扩展性好，预留了与其他系统的集成能力，资料比较全</t>
+  </si>
+  <si>
+    <t>资料太少，需要阿里支持</t>
+  </si>
+  <si>
+    <t>DUBBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2545,8 +2658,23 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2577,8 +2705,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE8CF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2601,6 +2741,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2620,7 +2812,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2762,6 +2954,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4853,6 +5078,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5149,7 +5442,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -14926,7 +15219,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15312,7 +15605,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15410,7 +15703,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15500,4 +15793,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A5" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75">
+      <c r="A6" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A7" s="54"/>
+      <c r="B7" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="57"/>
+    </row>
+    <row r="8" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A8" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" thickBot="1">
+      <c r="A9" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A10" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A11" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75">
+      <c r="A12" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75">
+      <c r="A14" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A16" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/计划/事务跟踪.xlsx
+++ b/计划/事务跟踪.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="705" windowWidth="13560" windowHeight="5595" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="13560" windowHeight="5595" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="试运营环境问题跟踪" sheetId="20" state="hidden" r:id="rId1"/>
     <sheet name="浙江政务云问题跟踪" sheetId="22" state="hidden" r:id="rId2"/>
     <sheet name="事务跟踪" sheetId="21" r:id="rId3"/>
-    <sheet name="大应用技术跟踪" sheetId="23" r:id="rId4"/>
-    <sheet name="EDAS相关问题跟踪" sheetId="28" r:id="rId5"/>
-    <sheet name="差异对比" sheetId="29" r:id="rId6"/>
-    <sheet name="前端框架" sheetId="30" r:id="rId7"/>
-    <sheet name="运维管控" sheetId="31" r:id="rId8"/>
+    <sheet name="EDAS相关问题跟踪" sheetId="28" r:id="rId4"/>
+    <sheet name="差异对比" sheetId="29" r:id="rId5"/>
+    <sheet name="前端框架" sheetId="30" r:id="rId6"/>
+    <sheet name="运维管控" sheetId="31" r:id="rId7"/>
+    <sheet name="核心模块及跟踪" sheetId="35" r:id="rId8"/>
     <sheet name="dubbo与edas差别" sheetId="33" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EDAS相关问题跟踪!$A$1:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">差异对比!$A$1:$B$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">大应用技术跟踪!$A$1:$D$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">事务跟踪!$A$1:$E$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EDAS相关问题跟踪!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">差异对比!$A$1:$B$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">事务跟踪!$A$1:$E$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">试运营环境问题跟踪!$A$12:$J$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">浙江政务云问题跟踪!$A$12:$J$43</definedName>
   </definedNames>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="375">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1991,6 +1990,537 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老系统对接方案交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>REST API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模板提供</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案服务考虑提取出基础功能服务，这部分功能缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案服务直接从图片中心获取数据，不单独实现基础功能服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共快照功能考虑，比如地址信息，订单支付人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接保存冗余数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算期间补充发票信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商注册进度查询（支持未登录查询）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未投入</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差异描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付件从JAR包切换为WAR包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过java -jar启动，修改为通过ali-tomcat启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper不需要配置，使用EDAS自带configServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法通过java -jar 带-D参数或者设置环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDAS统一部署后前端WEB工程如何部署考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心支持（原来为spring-cloud-config，后续替换为Diamond）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志中心支持（原来为自建解决方案包括了缓存，logstash，elasticSearch等组件，比较重但是功能强大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRDS支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动扩容支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows下无法启动多个ali-tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用定制过的ali-tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如修改过启动参数的ali-tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有全面的HSF服务参数说明文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngularJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gulp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BootStrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数梦云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政采云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PokeBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handlebar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考EDAS studio文档中的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDAS控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDAS</t>
+  </si>
+  <si>
+    <t>服务运行环境</t>
+  </si>
+  <si>
+    <t>无限制，在任何java环境中使用，方便本地调试</t>
+  </si>
+  <si>
+    <t>只能运行在Pandora容器中</t>
+  </si>
+  <si>
+    <t>官方建议通过ali-tomcat容器启动</t>
+  </si>
+  <si>
+    <t>一个ali-tomcat内只能运行一个服务</t>
+  </si>
+  <si>
+    <t>服务交付件</t>
+  </si>
+  <si>
+    <t>无限制，可以为JAR或者WAR包</t>
+  </si>
+  <si>
+    <t>官方建议提供WAR交付件，JAR方式应该也支持，但是工具包没有公开</t>
+  </si>
+  <si>
+    <t>服务注册</t>
+  </si>
+  <si>
+    <t>支持zookeeper，redis，简易注册中心</t>
+  </si>
+  <si>
+    <t>应用需要感知，需要配置</t>
+  </si>
+  <si>
+    <t>存在注册中心（configServer），应用不需要感知，不需要配置</t>
+  </si>
+  <si>
+    <t>服务鉴权</t>
+  </si>
+  <si>
+    <t>需要环境内部可信，无鉴权</t>
+  </si>
+  <si>
+    <t>在服务注册，订阅，调用的每一个环节都有鉴权</t>
+  </si>
+  <si>
+    <t>服务调用链</t>
+  </si>
+  <si>
+    <t>可以集成第三方开发功能（京东有开源功能）</t>
+  </si>
+  <si>
+    <t>容器中实现，已经支持</t>
+  </si>
+  <si>
+    <t>服务监控中心</t>
+  </si>
+  <si>
+    <t>只支持简单的监控中心，应用需要感知，需要配置</t>
+  </si>
+  <si>
+    <t>支持功能更全面，阿里对外宣传中重点描述了这一块，不需要应用感知</t>
+  </si>
+  <si>
+    <t>服务部署</t>
+  </si>
+  <si>
+    <t>官网资料有规划，但是实际没有实现</t>
+  </si>
+  <si>
+    <t>提供EDAS控制台，ali-tomcat运行环境，pandora应用容器</t>
+  </si>
+  <si>
+    <t>服务管理中心</t>
+  </si>
+  <si>
+    <t>独立的管理中心，部署容易，方便本地调试</t>
+  </si>
+  <si>
+    <t>管理中心依托于EDAS产品管理控制台</t>
+  </si>
+  <si>
+    <t>本地调试的服务管理中心没有对外提供，号称开发中</t>
+  </si>
+  <si>
+    <t>配置中心</t>
+  </si>
+  <si>
+    <t>需要自己集成第三方功能</t>
+  </si>
+  <si>
+    <t>目前需要自己集成第三方功能</t>
+  </si>
+  <si>
+    <t>官方号称后续会提供Diamond分布式配置功能</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>开源，扩展性好，预留了与其他系统的集成能力，资料比较全</t>
+  </si>
+  <si>
+    <t>资料太少，需要阿里支持</t>
+  </si>
+  <si>
+    <t>DUBBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪翻云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力开放平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先承接政采云功能，后续考虑开源方案整合及对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步投入一下分析，现在还没有概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户及权限中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括商品，搜索，店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息待办中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸟哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未投入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先输出方案，下周找时间评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出最简化评价模型及方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先移植并接受政采云功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端MVC渲染框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石破天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先输出框架选择，然后输出积累的组件库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出方案，输出pampas源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weex框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事务描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2005,476 +2535,321 @@
   </si>
   <si>
     <r>
+      <t>PD</t>
+    </r>
+    <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>事务描述</t>
+      <t>人力缺口</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>UED</t>
+    </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>备注</t>
+      <t>人力缺口</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半周报输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老系统对接方案交流</t>
+    <t>业务模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端人力缺口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>REST API</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">需要导入过程中即可介入，人力缺口也很大，方案：
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>模板提供</t>
+      <t xml:space="preserve">内部招聘，特别关注原来参与过相关工作的同事；
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案服务考虑提取出基础功能服务，这部分功能缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案服务直接从图片中心获取数据，不单独实现基础功能服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共快照功能考虑，比如地址信息，订单支付人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接保存冗余数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算期间补充发票信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商注册进度查询（支持未登录查询）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中</t>
-  </si>
-  <si>
-    <t>未投入</t>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>war包在ali-tomcat中运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置中心支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring-boot打成war包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二，周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID分配中心移植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心移植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限中心移植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志中心支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diamond还没有上线，暂时采用现有方案，单独部署，外部挂接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dubbo依赖去除，zookeeper依赖去除，更新为hsf依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用EDAS自带的日志中心（不过听说功能比较弱，后面试用一下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差异描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付件从JAR包切换为WAR包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过java -jar启动，修改为通过ali-tomcat启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zookeeper不需要配置，使用EDAS自带configServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法通过java -jar 带-D参数或者设置环境变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDAS统一部署后前端WEB工程如何部署考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置中心支持（原来为spring-cloud-config，后续替换为Diamond）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志中心支持（原来为自建解决方案包括了缓存，logstash，elasticSearch等组件，比较重但是功能强大）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRDS支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动扩容支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链路跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows下无法启动多个ali-tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否支持注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分库分表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mybatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MYCAT&amp;DRDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVC方案(Spring-MVC&amp;PAMPAS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsf基本配置文档整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端框架分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时采用现有方案，手工在ECS上部署，外部挂接，使用EDAS后考虑OCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用定制过的ali-tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如修改过启动参数的ali-tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有全面的HSF服务参数说明文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AngularJS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReactJS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gulp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebPack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样式框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BootStrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数梦云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政采云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PokeBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handlebar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考EDAS studio文档中的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dubbo admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDAS控制台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dubbo monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDAS</t>
-  </si>
-  <si>
-    <t>服务运行环境</t>
-  </si>
-  <si>
-    <t>无限制，在任何java环境中使用，方便本地调试</t>
-  </si>
-  <si>
-    <t>只能运行在Pandora容器中</t>
-  </si>
-  <si>
-    <t>官方建议通过ali-tomcat容器启动</t>
-  </si>
-  <si>
-    <t>一个ali-tomcat内只能运行一个服务</t>
-  </si>
-  <si>
-    <t>服务交付件</t>
-  </si>
-  <si>
-    <t>无限制，可以为JAR或者WAR包</t>
-  </si>
-  <si>
-    <t>官方建议提供WAR交付件，JAR方式应该也支持，但是工具包没有公开</t>
-  </si>
-  <si>
-    <t>服务注册</t>
-  </si>
-  <si>
-    <t>支持zookeeper，redis，简易注册中心</t>
-  </si>
-  <si>
-    <t>应用需要感知，需要配置</t>
-  </si>
-  <si>
-    <t>存在注册中心（configServer），应用不需要感知，不需要配置</t>
-  </si>
-  <si>
-    <t>服务鉴权</t>
-  </si>
-  <si>
-    <t>需要环境内部可信，无鉴权</t>
-  </si>
-  <si>
-    <t>在服务注册，订阅，调用的每一个环节都有鉴权</t>
-  </si>
-  <si>
-    <t>服务调用链</t>
-  </si>
-  <si>
-    <t>可以集成第三方开发功能（京东有开源功能）</t>
-  </si>
-  <si>
-    <t>容器中实现，已经支持</t>
-  </si>
-  <si>
-    <t>服务监控中心</t>
-  </si>
-  <si>
-    <t>只支持简单的监控中心，应用需要感知，需要配置</t>
-  </si>
-  <si>
-    <t>支持功能更全面，阿里对外宣传中重点描述了这一块，不需要应用感知</t>
-  </si>
-  <si>
-    <t>服务部署</t>
-  </si>
-  <si>
-    <t>官网资料有规划，但是实际没有实现</t>
-  </si>
-  <si>
-    <t>提供EDAS控制台，ali-tomcat运行环境，pandora应用容器</t>
-  </si>
-  <si>
-    <t>服务管理中心</t>
-  </si>
-  <si>
-    <t>独立的管理中心，部署容易，方便本地调试</t>
-  </si>
-  <si>
-    <t>管理中心依托于EDAS产品管理控制台</t>
-  </si>
-  <si>
-    <t>本地调试的服务管理中心没有对外提供，号称开发中</t>
-  </si>
-  <si>
-    <t>配置中心</t>
-  </si>
-  <si>
-    <t>需要自己集成第三方功能</t>
-  </si>
-  <si>
-    <t>目前需要自己集成第三方功能</t>
-  </si>
-  <si>
-    <t>官方号称后续会提供Diamond分布式配置功能</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>开源，扩展性好，预留了与其他系统的集成能力，资料比较全</t>
-  </si>
-  <si>
-    <t>资料太少，需要阿里支持</t>
-  </si>
-  <si>
-    <t>DUBBO</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">外部招聘，需要输出对应的方法论，进行培养，给适当压力；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿里外援；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中标后第一时间需要，人力缺口比较大，需要尽快补充，方案：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">内部招聘，特别关注原来参与过相关工作的同事；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">外部招聘，需要输出对应的方法论，进行培养，给适当压力；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发先顶一下，从中物色部分合适角色。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端人力缺口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个能力中心需要1-2个人力跟踪，核心人力至少需要10人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共包整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉淀出自己的工具包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待安排</t>
+  </si>
+  <si>
+    <t>待安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">目前只有戴鹏一个长期投入的正式员工，方案：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部招聘，首选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>AngularJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">框架，内部相关人才比较多，协调可能性大；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外部招聘；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2482,7 +2857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2673,6 +3048,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2718,7 +3101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2793,6 +3176,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2812,7 +3206,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2969,6 +3363,21 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2987,6 +3396,9 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2996,7 +3408,118 @@
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="396">
+  <dxfs count="407">
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="3" tint="0.39994506668294322"/>
@@ -3046,6 +3569,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
@@ -3067,6 +3595,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
@@ -3104,7 +3637,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="0.39994506668294322"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -3125,7 +3658,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="0.39994506668294322"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -3146,7 +3679,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="0.39994506668294322"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -3167,7 +3700,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="0.39994506668294322"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -3188,12 +3721,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.39994506668294322"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -3214,7 +3742,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="0.39994506668294322"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -4936,11 +5464,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
@@ -4957,7 +5480,28 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
@@ -4978,7 +5522,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
@@ -4997,155 +5546,8 @@
         <color theme="3" tint="0.39994506668294322"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5442,7 +5844,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -9564,1277 +9966,1277 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A42 A43:B43 A52 B59 A59:A60 H52:J56 A53:B58 C52:G55 A44:J51 A65:J65 C57:D57 A61:B64 H58:J64 A12:B41 C12:J43 A66:B70 A71:C71 A73:E73 G73:J73 A82:J1048576 A72:B72 H66:J72 A74:B79 A81:B81 H74:J81">
-    <cfRule type="expression" dxfId="395" priority="541">
+    <cfRule type="expression" dxfId="393" priority="541">
       <formula>$C12="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="542">
+    <cfRule type="expression" dxfId="392" priority="542">
       <formula>$C12="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="543">
+    <cfRule type="expression" dxfId="391" priority="543">
       <formula>$C12="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="392" priority="538">
+    <cfRule type="expression" dxfId="390" priority="538">
       <formula>$C42="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="539">
+    <cfRule type="expression" dxfId="389" priority="539">
       <formula>$C42="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="540">
+    <cfRule type="expression" dxfId="388" priority="540">
       <formula>$C42="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 B59 A59:A60 H52:J56 A53:B58 C52:G55 A65:J65 C57:D57 A61:B64 H58:J64 A12:J51 A66:B70 A71:C71 A73:E73 G73:J73 A82:J1048576 A72:B72 H66:J72 A74:B79 A81:B81 H74:J81">
-    <cfRule type="expression" dxfId="389" priority="537">
+    <cfRule type="expression" dxfId="387" priority="537">
       <formula>$C12="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="388" priority="506">
+    <cfRule type="expression" dxfId="386" priority="506">
       <formula>$C56="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="507">
+    <cfRule type="expression" dxfId="385" priority="507">
       <formula>$C56="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="508">
+    <cfRule type="expression" dxfId="384" priority="508">
       <formula>$C56="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="385" priority="505">
+    <cfRule type="expression" dxfId="383" priority="505">
       <formula>$C56="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:G56">
-    <cfRule type="expression" dxfId="384" priority="502">
+    <cfRule type="expression" dxfId="382" priority="502">
       <formula>$C56="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="503">
+    <cfRule type="expression" dxfId="381" priority="503">
       <formula>$C56="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="504">
+    <cfRule type="expression" dxfId="380" priority="504">
       <formula>$C56="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:G56">
-    <cfRule type="expression" dxfId="381" priority="501">
+    <cfRule type="expression" dxfId="379" priority="501">
       <formula>$C56="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="380" priority="494">
+    <cfRule type="expression" dxfId="378" priority="494">
       <formula>$C52="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="495">
+    <cfRule type="expression" dxfId="377" priority="495">
       <formula>$C52="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="496">
+    <cfRule type="expression" dxfId="376" priority="496">
       <formula>$C52="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="377" priority="493">
+    <cfRule type="expression" dxfId="375" priority="493">
       <formula>$C52="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" dxfId="376" priority="490">
+    <cfRule type="expression" dxfId="374" priority="490">
       <formula>$C57="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="491">
+    <cfRule type="expression" dxfId="373" priority="491">
       <formula>$C57="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="492">
+    <cfRule type="expression" dxfId="372" priority="492">
       <formula>$C57="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" dxfId="373" priority="489">
+    <cfRule type="expression" dxfId="371" priority="489">
       <formula>$C57="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:G57">
-    <cfRule type="expression" dxfId="372" priority="486">
+    <cfRule type="expression" dxfId="370" priority="486">
       <formula>$C57="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="487">
+    <cfRule type="expression" dxfId="369" priority="487">
       <formula>$C57="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="488">
+    <cfRule type="expression" dxfId="368" priority="488">
       <formula>$C57="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:G57">
-    <cfRule type="expression" dxfId="369" priority="485">
+    <cfRule type="expression" dxfId="367" priority="485">
       <formula>$C57="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="368" priority="374">
+    <cfRule type="expression" dxfId="366" priority="374">
       <formula>$C60="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="375">
+    <cfRule type="expression" dxfId="365" priority="375">
       <formula>$C60="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="376">
+    <cfRule type="expression" dxfId="364" priority="376">
       <formula>$C60="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="365" priority="373">
+    <cfRule type="expression" dxfId="363" priority="373">
       <formula>$C60="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="364" priority="370">
+    <cfRule type="expression" dxfId="362" priority="370">
       <formula>$C60="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="371">
+    <cfRule type="expression" dxfId="361" priority="371">
       <formula>$C60="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="372">
+    <cfRule type="expression" dxfId="360" priority="372">
       <formula>$C60="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="361" priority="369">
+    <cfRule type="expression" dxfId="359" priority="369">
       <formula>$C60="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L34">
-    <cfRule type="expression" dxfId="360" priority="366">
+    <cfRule type="expression" dxfId="358" priority="366">
       <formula>$C22="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="367">
+    <cfRule type="expression" dxfId="357" priority="367">
       <formula>$C22="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="368">
+    <cfRule type="expression" dxfId="356" priority="368">
       <formula>$C22="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:L34">
-    <cfRule type="expression" dxfId="357" priority="365">
+    <cfRule type="expression" dxfId="355" priority="365">
       <formula>$C22="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="356" priority="454">
+    <cfRule type="expression" dxfId="354" priority="454">
       <formula>$C58="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="455">
+    <cfRule type="expression" dxfId="353" priority="455">
       <formula>$C58="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="456">
+    <cfRule type="expression" dxfId="352" priority="456">
       <formula>$C58="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="353" priority="453">
+    <cfRule type="expression" dxfId="351" priority="453">
       <formula>$C58="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="352" priority="434">
+    <cfRule type="expression" dxfId="350" priority="434">
       <formula>$C58="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="435">
+    <cfRule type="expression" dxfId="349" priority="435">
       <formula>$C58="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="436">
+    <cfRule type="expression" dxfId="348" priority="436">
       <formula>$C58="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="349" priority="433">
+    <cfRule type="expression" dxfId="347" priority="433">
       <formula>$C58="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G58">
-    <cfRule type="expression" dxfId="348" priority="430">
+    <cfRule type="expression" dxfId="346" priority="430">
       <formula>$C58="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="431">
+    <cfRule type="expression" dxfId="345" priority="431">
       <formula>$C58="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="432">
+    <cfRule type="expression" dxfId="344" priority="432">
       <formula>$C58="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G58">
-    <cfRule type="expression" dxfId="345" priority="429">
+    <cfRule type="expression" dxfId="343" priority="429">
       <formula>$C58="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="344" priority="422">
+    <cfRule type="expression" dxfId="342" priority="422">
       <formula>$C57="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="423">
+    <cfRule type="expression" dxfId="341" priority="423">
       <formula>$C57="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="424">
+    <cfRule type="expression" dxfId="340" priority="424">
       <formula>$C57="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="341" priority="421">
+    <cfRule type="expression" dxfId="339" priority="421">
       <formula>$C57="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="340" priority="418">
+    <cfRule type="expression" dxfId="338" priority="418">
       <formula>$C59="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="419">
+    <cfRule type="expression" dxfId="337" priority="419">
       <formula>$C59="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="420">
+    <cfRule type="expression" dxfId="336" priority="420">
       <formula>$C59="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="337" priority="417">
+    <cfRule type="expression" dxfId="335" priority="417">
       <formula>$C59="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="336" priority="382">
+    <cfRule type="expression" dxfId="334" priority="382">
       <formula>$C59="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="383">
+    <cfRule type="expression" dxfId="333" priority="383">
       <formula>$C59="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="384">
+    <cfRule type="expression" dxfId="332" priority="384">
       <formula>$C59="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="333" priority="381">
+    <cfRule type="expression" dxfId="331" priority="381">
       <formula>$C59="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="332" priority="402">
+    <cfRule type="expression" dxfId="330" priority="402">
       <formula>$C60="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="403">
+    <cfRule type="expression" dxfId="329" priority="403">
       <formula>$C60="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="404">
+    <cfRule type="expression" dxfId="328" priority="404">
       <formula>$C60="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="329" priority="401">
+    <cfRule type="expression" dxfId="327" priority="401">
       <formula>$C60="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59 F59:G59">
-    <cfRule type="expression" dxfId="328" priority="386">
+    <cfRule type="expression" dxfId="326" priority="386">
       <formula>$C59="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="387">
+    <cfRule type="expression" dxfId="325" priority="387">
       <formula>$C59="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="388">
+    <cfRule type="expression" dxfId="324" priority="388">
       <formula>$C59="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59 F59:G59">
-    <cfRule type="expression" dxfId="325" priority="385">
+    <cfRule type="expression" dxfId="323" priority="385">
       <formula>$C59="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="expression" dxfId="324" priority="378">
+    <cfRule type="expression" dxfId="322" priority="378">
       <formula>$C60="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="379">
+    <cfRule type="expression" dxfId="321" priority="379">
       <formula>$C60="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="380">
+    <cfRule type="expression" dxfId="320" priority="380">
       <formula>$C60="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="expression" dxfId="321" priority="377">
+    <cfRule type="expression" dxfId="319" priority="377">
       <formula>$C60="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="320" priority="362">
+    <cfRule type="expression" dxfId="318" priority="362">
       <formula>$C61="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="363">
+    <cfRule type="expression" dxfId="317" priority="363">
       <formula>$C61="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="364">
+    <cfRule type="expression" dxfId="316" priority="364">
       <formula>$C61="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="317" priority="361">
+    <cfRule type="expression" dxfId="315" priority="361">
       <formula>$C61="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="316" priority="286">
+    <cfRule type="expression" dxfId="314" priority="286">
       <formula>$C63="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="287">
+    <cfRule type="expression" dxfId="313" priority="287">
       <formula>$C63="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="288">
+    <cfRule type="expression" dxfId="312" priority="288">
       <formula>$C63="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="313" priority="285">
+    <cfRule type="expression" dxfId="311" priority="285">
       <formula>$C63="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G63">
-    <cfRule type="expression" dxfId="312" priority="294">
+    <cfRule type="expression" dxfId="310" priority="294">
       <formula>$C63="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="295">
+    <cfRule type="expression" dxfId="309" priority="295">
       <formula>$C63="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="296">
+    <cfRule type="expression" dxfId="308" priority="296">
       <formula>$C63="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G63">
-    <cfRule type="expression" dxfId="309" priority="293">
+    <cfRule type="expression" dxfId="307" priority="293">
       <formula>$C63="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="308" priority="342">
+    <cfRule type="expression" dxfId="306" priority="342">
       <formula>$C61="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="343">
+    <cfRule type="expression" dxfId="305" priority="343">
       <formula>$C61="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="344">
+    <cfRule type="expression" dxfId="304" priority="344">
       <formula>$C61="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="305" priority="341">
+    <cfRule type="expression" dxfId="303" priority="341">
       <formula>$C61="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="304" priority="338">
+    <cfRule type="expression" dxfId="302" priority="338">
       <formula>$C61="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="339">
+    <cfRule type="expression" dxfId="301" priority="339">
       <formula>$C61="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="340">
+    <cfRule type="expression" dxfId="300" priority="340">
       <formula>$C61="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="301" priority="337">
+    <cfRule type="expression" dxfId="299" priority="337">
       <formula>$C61="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:G61">
-    <cfRule type="expression" dxfId="300" priority="346">
+    <cfRule type="expression" dxfId="298" priority="346">
       <formula>$C61="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="347">
+    <cfRule type="expression" dxfId="297" priority="347">
       <formula>$C61="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="348">
+    <cfRule type="expression" dxfId="296" priority="348">
       <formula>$C61="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:G61">
-    <cfRule type="expression" dxfId="297" priority="345">
+    <cfRule type="expression" dxfId="295" priority="345">
       <formula>$C61="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="296" priority="334">
+    <cfRule type="expression" dxfId="294" priority="334">
       <formula>$C60="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="335">
+    <cfRule type="expression" dxfId="293" priority="335">
       <formula>$C60="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="336">
+    <cfRule type="expression" dxfId="292" priority="336">
       <formula>$C60="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="293" priority="333">
+    <cfRule type="expression" dxfId="291" priority="333">
       <formula>$C60="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="292" priority="330">
+    <cfRule type="expression" dxfId="290" priority="330">
       <formula>$C62="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="331">
+    <cfRule type="expression" dxfId="289" priority="331">
       <formula>$C62="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="332">
+    <cfRule type="expression" dxfId="288" priority="332">
       <formula>$C62="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="289" priority="329">
+    <cfRule type="expression" dxfId="287" priority="329">
       <formula>$C62="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="288" priority="310">
+    <cfRule type="expression" dxfId="286" priority="310">
       <formula>$C62="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="311">
+    <cfRule type="expression" dxfId="285" priority="311">
       <formula>$C62="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="312">
+    <cfRule type="expression" dxfId="284" priority="312">
       <formula>$C62="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="285" priority="309">
+    <cfRule type="expression" dxfId="283" priority="309">
       <formula>$C62="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="284" priority="306">
+    <cfRule type="expression" dxfId="282" priority="306">
       <formula>$C62="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="307">
+    <cfRule type="expression" dxfId="281" priority="307">
       <formula>$C62="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="308">
+    <cfRule type="expression" dxfId="280" priority="308">
       <formula>$C62="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="281" priority="305">
+    <cfRule type="expression" dxfId="279" priority="305">
       <formula>$C62="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:G62">
-    <cfRule type="expression" dxfId="280" priority="314">
+    <cfRule type="expression" dxfId="278" priority="314">
       <formula>$C62="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="315">
+    <cfRule type="expression" dxfId="277" priority="315">
       <formula>$C62="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="316">
+    <cfRule type="expression" dxfId="276" priority="316">
       <formula>$C62="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:G62">
-    <cfRule type="expression" dxfId="277" priority="313">
+    <cfRule type="expression" dxfId="275" priority="313">
       <formula>$C62="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="276" priority="302">
+    <cfRule type="expression" dxfId="274" priority="302">
       <formula>$C63="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="303">
+    <cfRule type="expression" dxfId="273" priority="303">
       <formula>$C63="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="304">
+    <cfRule type="expression" dxfId="272" priority="304">
       <formula>$C63="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="273" priority="301">
+    <cfRule type="expression" dxfId="271" priority="301">
       <formula>$C63="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="272" priority="290">
+    <cfRule type="expression" dxfId="270" priority="290">
       <formula>$C63="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="291">
+    <cfRule type="expression" dxfId="269" priority="291">
       <formula>$C63="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="292">
+    <cfRule type="expression" dxfId="268" priority="292">
       <formula>$C63="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="269" priority="289">
+    <cfRule type="expression" dxfId="267" priority="289">
       <formula>$C63="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="268" priority="230">
+    <cfRule type="expression" dxfId="266" priority="230">
       <formula>$C64="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="231">
+    <cfRule type="expression" dxfId="265" priority="231">
       <formula>$C64="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="232">
+    <cfRule type="expression" dxfId="264" priority="232">
       <formula>$C64="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="265" priority="229">
+    <cfRule type="expression" dxfId="263" priority="229">
       <formula>$C64="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:G64">
-    <cfRule type="expression" dxfId="264" priority="238">
+    <cfRule type="expression" dxfId="262" priority="238">
       <formula>$C64="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="239">
+    <cfRule type="expression" dxfId="261" priority="239">
       <formula>$C64="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="240">
+    <cfRule type="expression" dxfId="260" priority="240">
       <formula>$C64="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:G64">
-    <cfRule type="expression" dxfId="261" priority="237">
+    <cfRule type="expression" dxfId="259" priority="237">
       <formula>$C64="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="260" priority="254">
+    <cfRule type="expression" dxfId="258" priority="254">
       <formula>$C64="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="255">
+    <cfRule type="expression" dxfId="257" priority="255">
       <formula>$C64="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="256">
+    <cfRule type="expression" dxfId="256" priority="256">
       <formula>$C64="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="257" priority="253">
+    <cfRule type="expression" dxfId="255" priority="253">
       <formula>$C64="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="256" priority="234">
+    <cfRule type="expression" dxfId="254" priority="234">
       <formula>$C64="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="235">
+    <cfRule type="expression" dxfId="253" priority="235">
       <formula>$C64="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="236">
+    <cfRule type="expression" dxfId="252" priority="236">
       <formula>$C64="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="253" priority="233">
+    <cfRule type="expression" dxfId="251" priority="233">
       <formula>$C64="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="expression" dxfId="252" priority="206">
+    <cfRule type="expression" dxfId="250" priority="206">
       <formula>$C2="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="207">
+    <cfRule type="expression" dxfId="249" priority="207">
       <formula>$C2="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="208">
+    <cfRule type="expression" dxfId="248" priority="208">
       <formula>$C2="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="expression" dxfId="249" priority="205">
+    <cfRule type="expression" dxfId="247" priority="205">
       <formula>$C2="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="248" priority="202">
+    <cfRule type="expression" dxfId="246" priority="202">
       <formula>$C66="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="203">
+    <cfRule type="expression" dxfId="245" priority="203">
       <formula>$C66="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="204">
+    <cfRule type="expression" dxfId="244" priority="204">
       <formula>$C66="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="245" priority="201">
+    <cfRule type="expression" dxfId="243" priority="201">
       <formula>$C66="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="244" priority="178">
+    <cfRule type="expression" dxfId="242" priority="178">
       <formula>$C66="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="179">
+    <cfRule type="expression" dxfId="241" priority="179">
       <formula>$C66="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="180">
+    <cfRule type="expression" dxfId="240" priority="180">
       <formula>$C66="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="241" priority="177">
+    <cfRule type="expression" dxfId="239" priority="177">
       <formula>$C66="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:G66">
-    <cfRule type="expression" dxfId="240" priority="186">
+    <cfRule type="expression" dxfId="238" priority="186">
       <formula>$C66="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="187">
+    <cfRule type="expression" dxfId="237" priority="187">
       <formula>$C66="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="188">
+    <cfRule type="expression" dxfId="236" priority="188">
       <formula>$C66="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:G66">
-    <cfRule type="expression" dxfId="237" priority="185">
+    <cfRule type="expression" dxfId="235" priority="185">
       <formula>$C66="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="236" priority="182">
+    <cfRule type="expression" dxfId="234" priority="182">
       <formula>$C66="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="183">
+    <cfRule type="expression" dxfId="233" priority="183">
       <formula>$C66="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="184">
+    <cfRule type="expression" dxfId="232" priority="184">
       <formula>$C66="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="233" priority="181">
+    <cfRule type="expression" dxfId="231" priority="181">
       <formula>$C66="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="232" priority="174">
+    <cfRule type="expression" dxfId="230" priority="174">
       <formula>$C67="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="175">
+    <cfRule type="expression" dxfId="229" priority="175">
       <formula>$C67="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="176">
+    <cfRule type="expression" dxfId="228" priority="176">
       <formula>$C67="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="229" priority="173">
+    <cfRule type="expression" dxfId="227" priority="173">
       <formula>$C67="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="228" priority="162">
+    <cfRule type="expression" dxfId="226" priority="162">
       <formula>$C67="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="163">
+    <cfRule type="expression" dxfId="225" priority="163">
       <formula>$C67="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="164">
+    <cfRule type="expression" dxfId="224" priority="164">
       <formula>$C67="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="225" priority="161">
+    <cfRule type="expression" dxfId="223" priority="161">
       <formula>$C67="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="expression" dxfId="224" priority="170">
+    <cfRule type="expression" dxfId="222" priority="170">
       <formula>$C67="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="171">
+    <cfRule type="expression" dxfId="221" priority="171">
       <formula>$C67="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="172">
+    <cfRule type="expression" dxfId="220" priority="172">
       <formula>$C67="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="expression" dxfId="221" priority="169">
+    <cfRule type="expression" dxfId="219" priority="169">
       <formula>$C67="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="220" priority="166">
+    <cfRule type="expression" dxfId="218" priority="166">
       <formula>$C67="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="167">
+    <cfRule type="expression" dxfId="217" priority="167">
       <formula>$C67="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="168">
+    <cfRule type="expression" dxfId="216" priority="168">
       <formula>$C67="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="217" priority="165">
+    <cfRule type="expression" dxfId="215" priority="165">
       <formula>$C67="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="216" priority="158">
+    <cfRule type="expression" dxfId="214" priority="158">
       <formula>$C68="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="159">
+    <cfRule type="expression" dxfId="213" priority="159">
       <formula>$C68="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="160">
+    <cfRule type="expression" dxfId="212" priority="160">
       <formula>$C68="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="213" priority="157">
+    <cfRule type="expression" dxfId="211" priority="157">
       <formula>$C68="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="212" priority="146">
+    <cfRule type="expression" dxfId="210" priority="146">
       <formula>$C68="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="147">
+    <cfRule type="expression" dxfId="209" priority="147">
       <formula>$C68="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="148">
+    <cfRule type="expression" dxfId="208" priority="148">
       <formula>$C68="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="209" priority="145">
+    <cfRule type="expression" dxfId="207" priority="145">
       <formula>$C68="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:G68">
-    <cfRule type="expression" dxfId="208" priority="154">
+    <cfRule type="expression" dxfId="206" priority="154">
       <formula>$C68="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="155">
+    <cfRule type="expression" dxfId="205" priority="155">
       <formula>$C68="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="156">
+    <cfRule type="expression" dxfId="204" priority="156">
       <formula>$C68="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:G68">
-    <cfRule type="expression" dxfId="205" priority="153">
+    <cfRule type="expression" dxfId="203" priority="153">
       <formula>$C68="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="204" priority="150">
+    <cfRule type="expression" dxfId="202" priority="150">
       <formula>$C68="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="151">
+    <cfRule type="expression" dxfId="201" priority="151">
       <formula>$C68="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="152">
+    <cfRule type="expression" dxfId="200" priority="152">
       <formula>$C68="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="201" priority="149">
+    <cfRule type="expression" dxfId="199" priority="149">
       <formula>$C68="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="200" priority="142">
+    <cfRule type="expression" dxfId="198" priority="142">
       <formula>$C69="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="143">
+    <cfRule type="expression" dxfId="197" priority="143">
       <formula>$C69="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="144">
+    <cfRule type="expression" dxfId="196" priority="144">
       <formula>$C69="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="197" priority="141">
+    <cfRule type="expression" dxfId="195" priority="141">
       <formula>$C69="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="196" priority="130">
+    <cfRule type="expression" dxfId="194" priority="130">
       <formula>$C69="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="131">
+    <cfRule type="expression" dxfId="193" priority="131">
       <formula>$C69="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="132">
+    <cfRule type="expression" dxfId="192" priority="132">
       <formula>$C69="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="193" priority="129">
+    <cfRule type="expression" dxfId="191" priority="129">
       <formula>$C69="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="expression" dxfId="192" priority="138">
+    <cfRule type="expression" dxfId="190" priority="138">
       <formula>$C69="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="139">
+    <cfRule type="expression" dxfId="189" priority="139">
       <formula>$C69="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="140">
+    <cfRule type="expression" dxfId="188" priority="140">
       <formula>$C69="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="expression" dxfId="189" priority="137">
+    <cfRule type="expression" dxfId="187" priority="137">
       <formula>$C69="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="188" priority="134">
+    <cfRule type="expression" dxfId="186" priority="134">
       <formula>$C69="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="135">
+    <cfRule type="expression" dxfId="185" priority="135">
       <formula>$C69="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="136">
+    <cfRule type="expression" dxfId="184" priority="136">
       <formula>$C69="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="185" priority="133">
+    <cfRule type="expression" dxfId="183" priority="133">
       <formula>$C69="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="184" priority="126">
+    <cfRule type="expression" dxfId="182" priority="126">
       <formula>$C70="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="127">
+    <cfRule type="expression" dxfId="181" priority="127">
       <formula>$C70="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="128">
+    <cfRule type="expression" dxfId="180" priority="128">
       <formula>$C70="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="181" priority="125">
+    <cfRule type="expression" dxfId="179" priority="125">
       <formula>$C70="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="180" priority="114">
+    <cfRule type="expression" dxfId="178" priority="114">
       <formula>$C70="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="115">
+    <cfRule type="expression" dxfId="177" priority="115">
       <formula>$C70="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="116">
+    <cfRule type="expression" dxfId="176" priority="116">
       <formula>$C70="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="177" priority="113">
+    <cfRule type="expression" dxfId="175" priority="113">
       <formula>$C70="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:G70">
-    <cfRule type="expression" dxfId="176" priority="122">
+    <cfRule type="expression" dxfId="174" priority="122">
       <formula>$C70="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="123">
+    <cfRule type="expression" dxfId="173" priority="123">
       <formula>$C70="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="124">
+    <cfRule type="expression" dxfId="172" priority="124">
       <formula>$C70="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:G70">
-    <cfRule type="expression" dxfId="173" priority="121">
+    <cfRule type="expression" dxfId="171" priority="121">
       <formula>$C70="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="172" priority="118">
+    <cfRule type="expression" dxfId="170" priority="118">
       <formula>$C70="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="119">
+    <cfRule type="expression" dxfId="169" priority="119">
       <formula>$C70="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="120">
+    <cfRule type="expression" dxfId="168" priority="120">
       <formula>$C70="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="169" priority="117">
+    <cfRule type="expression" dxfId="167" priority="117">
       <formula>$C70="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="168" priority="102">
+    <cfRule type="expression" dxfId="166" priority="102">
       <formula>$C71="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="103">
+    <cfRule type="expression" dxfId="165" priority="103">
       <formula>$C71="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="104">
+    <cfRule type="expression" dxfId="164" priority="104">
       <formula>$C71="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="165" priority="101">
+    <cfRule type="expression" dxfId="163" priority="101">
       <formula>$C71="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="expression" dxfId="164" priority="110">
+    <cfRule type="expression" dxfId="162" priority="110">
       <formula>$C71="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="111">
+    <cfRule type="expression" dxfId="161" priority="111">
       <formula>$C71="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="112">
+    <cfRule type="expression" dxfId="160" priority="112">
       <formula>$C71="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="expression" dxfId="161" priority="109">
+    <cfRule type="expression" dxfId="159" priority="109">
       <formula>$C71="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="160" priority="106">
+    <cfRule type="expression" dxfId="158" priority="106">
       <formula>$C71="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="107">
+    <cfRule type="expression" dxfId="157" priority="107">
       <formula>$C71="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="108">
+    <cfRule type="expression" dxfId="156" priority="108">
       <formula>$C71="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="157" priority="105">
+    <cfRule type="expression" dxfId="155" priority="105">
       <formula>$C71="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="156" priority="98">
+    <cfRule type="expression" dxfId="154" priority="98">
       <formula>$C72="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="99">
+    <cfRule type="expression" dxfId="153" priority="99">
       <formula>$C72="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="100">
+    <cfRule type="expression" dxfId="152" priority="100">
       <formula>$C72="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="153" priority="97">
+    <cfRule type="expression" dxfId="151" priority="97">
       <formula>$C72="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="152" priority="86">
+    <cfRule type="expression" dxfId="150" priority="86">
       <formula>$C72="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="87">
+    <cfRule type="expression" dxfId="149" priority="87">
       <formula>$C72="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="88">
+    <cfRule type="expression" dxfId="148" priority="88">
       <formula>$C72="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="149" priority="85">
+    <cfRule type="expression" dxfId="147" priority="85">
       <formula>$C72="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="expression" dxfId="148" priority="94">
+    <cfRule type="expression" dxfId="146" priority="94">
       <formula>$C72="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="95">
+    <cfRule type="expression" dxfId="145" priority="95">
       <formula>$C72="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="96">
+    <cfRule type="expression" dxfId="144" priority="96">
       <formula>$C72="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="expression" dxfId="145" priority="93">
+    <cfRule type="expression" dxfId="143" priority="93">
       <formula>$C72="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="144" priority="90">
+    <cfRule type="expression" dxfId="142" priority="90">
       <formula>$C72="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="91">
+    <cfRule type="expression" dxfId="141" priority="91">
       <formula>$C72="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="92">
+    <cfRule type="expression" dxfId="140" priority="92">
       <formula>$C72="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="141" priority="89">
+    <cfRule type="expression" dxfId="139" priority="89">
       <formula>$C72="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="140" priority="66">
+    <cfRule type="expression" dxfId="138" priority="66">
       <formula>$C73="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="67">
+    <cfRule type="expression" dxfId="137" priority="67">
       <formula>$C73="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="68">
+    <cfRule type="expression" dxfId="136" priority="68">
       <formula>$C73="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="137" priority="65">
+    <cfRule type="expression" dxfId="135" priority="65">
       <formula>$C73="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:E74 G74">
-    <cfRule type="expression" dxfId="136" priority="62">
+    <cfRule type="expression" dxfId="134" priority="62">
       <formula>$C74="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="63">
+    <cfRule type="expression" dxfId="133" priority="63">
       <formula>$C74="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="64">
+    <cfRule type="expression" dxfId="132" priority="64">
       <formula>$C74="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:E74 G74">
-    <cfRule type="expression" dxfId="133" priority="61">
+    <cfRule type="expression" dxfId="131" priority="61">
       <formula>$C74="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="132" priority="58">
+    <cfRule type="expression" dxfId="130" priority="58">
       <formula>$C74="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="59">
+    <cfRule type="expression" dxfId="129" priority="59">
       <formula>$C74="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="60">
+    <cfRule type="expression" dxfId="128" priority="60">
       <formula>$C74="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="129" priority="57">
+    <cfRule type="expression" dxfId="127" priority="57">
       <formula>$C74="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:E75 G75">
-    <cfRule type="expression" dxfId="128" priority="54">
+    <cfRule type="expression" dxfId="126" priority="54">
       <formula>$C75="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="55">
+    <cfRule type="expression" dxfId="125" priority="55">
       <formula>$C75="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="56">
+    <cfRule type="expression" dxfId="124" priority="56">
       <formula>$C75="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:E75 G75">
-    <cfRule type="expression" dxfId="125" priority="53">
+    <cfRule type="expression" dxfId="123" priority="53">
       <formula>$C75="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="124" priority="50">
+    <cfRule type="expression" dxfId="122" priority="50">
       <formula>$C75="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="51">
+    <cfRule type="expression" dxfId="121" priority="51">
       <formula>$C75="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="52">
+    <cfRule type="expression" dxfId="120" priority="52">
       <formula>$C75="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="121" priority="49">
+    <cfRule type="expression" dxfId="119" priority="49">
       <formula>$C75="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:E76 G76">
-    <cfRule type="expression" dxfId="120" priority="46">
+    <cfRule type="expression" dxfId="118" priority="46">
       <formula>$C76="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="47">
+    <cfRule type="expression" dxfId="117" priority="47">
       <formula>$C76="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="48">
+    <cfRule type="expression" dxfId="116" priority="48">
       <formula>$C76="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:E76 G76">
-    <cfRule type="expression" dxfId="117" priority="45">
+    <cfRule type="expression" dxfId="115" priority="45">
       <formula>$C76="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="116" priority="42">
+    <cfRule type="expression" dxfId="114" priority="42">
       <formula>$C76="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="43">
+    <cfRule type="expression" dxfId="113" priority="43">
       <formula>$C76="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="44">
+    <cfRule type="expression" dxfId="112" priority="44">
       <formula>$C76="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="113" priority="41">
+    <cfRule type="expression" dxfId="111" priority="41">
       <formula>$C76="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:E77 G77">
-    <cfRule type="expression" dxfId="112" priority="38">
+    <cfRule type="expression" dxfId="110" priority="38">
       <formula>$C77="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="39">
+    <cfRule type="expression" dxfId="109" priority="39">
       <formula>$C77="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="40">
+    <cfRule type="expression" dxfId="108" priority="40">
       <formula>$C77="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:E77 G77">
-    <cfRule type="expression" dxfId="109" priority="37">
+    <cfRule type="expression" dxfId="107" priority="37">
       <formula>$C77="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="108" priority="30">
+    <cfRule type="expression" dxfId="106" priority="30">
       <formula>$C77="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="31">
+    <cfRule type="expression" dxfId="105" priority="31">
       <formula>$C77="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="32">
+    <cfRule type="expression" dxfId="104" priority="32">
       <formula>$C77="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="105" priority="29">
+    <cfRule type="expression" dxfId="103" priority="29">
       <formula>$C77="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:E78 G78">
-    <cfRule type="expression" dxfId="104" priority="26">
+    <cfRule type="expression" dxfId="102" priority="26">
       <formula>$C78="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="27">
+    <cfRule type="expression" dxfId="101" priority="27">
       <formula>$C78="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="28">
+    <cfRule type="expression" dxfId="100" priority="28">
       <formula>$C78="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:E78 G78">
-    <cfRule type="expression" dxfId="101" priority="25">
+    <cfRule type="expression" dxfId="99" priority="25">
       <formula>$C78="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="100" priority="22">
+    <cfRule type="expression" dxfId="98" priority="22">
       <formula>$C78="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="23">
+    <cfRule type="expression" dxfId="97" priority="23">
       <formula>$C78="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="24">
+    <cfRule type="expression" dxfId="96" priority="24">
       <formula>$C78="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="97" priority="21">
+    <cfRule type="expression" dxfId="95" priority="21">
       <formula>$C78="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:E79 G79">
-    <cfRule type="expression" dxfId="96" priority="18">
+    <cfRule type="expression" dxfId="94" priority="18">
       <formula>$C79="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="19">
+    <cfRule type="expression" dxfId="93" priority="19">
       <formula>$C79="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="20">
+    <cfRule type="expression" dxfId="92" priority="20">
       <formula>$C79="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:E79 G79">
-    <cfRule type="expression" dxfId="93" priority="17">
+    <cfRule type="expression" dxfId="91" priority="17">
       <formula>$C79="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="92" priority="14">
+    <cfRule type="expression" dxfId="90" priority="14">
       <formula>$C79="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="15">
+    <cfRule type="expression" dxfId="89" priority="15">
       <formula>$C79="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="16">
+    <cfRule type="expression" dxfId="88" priority="16">
       <formula>$C79="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="89" priority="13">
+    <cfRule type="expression" dxfId="87" priority="13">
       <formula>$C79="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:G80">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>$C80="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="85" priority="11">
       <formula>$C80="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="12">
+    <cfRule type="expression" dxfId="84" priority="12">
       <formula>$C80="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:G80">
-    <cfRule type="expression" dxfId="85" priority="9">
+    <cfRule type="expression" dxfId="83" priority="9">
       <formula>$C80="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:E81 G81">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="82" priority="6">
       <formula>$C81="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="7">
+    <cfRule type="expression" dxfId="81" priority="7">
       <formula>$C81="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="8">
+    <cfRule type="expression" dxfId="80" priority="8">
       <formula>$C81="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:E81 G81">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="79" priority="5">
       <formula>$C81="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>$C81="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="3">
+    <cfRule type="expression" dxfId="77" priority="3">
       <formula>$C81="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="76" priority="4">
       <formula>$C81="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>$C81="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13087,114 +13489,114 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A12:J13 C19:J24 B25:J28 A67:J1048576 B14:J18 A14:A43 B30:J66">
-    <cfRule type="expression" dxfId="76" priority="329">
+    <cfRule type="expression" dxfId="74" priority="329">
       <formula>$C12="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="330">
+    <cfRule type="expression" dxfId="73" priority="330">
       <formula>$C12="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="331">
+    <cfRule type="expression" dxfId="72" priority="331">
       <formula>$C12="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:J13 C19:J24 B25:J28 A67:J1048576 B14:J18 A14:A43 B30:J66">
-    <cfRule type="expression" dxfId="73" priority="325">
+    <cfRule type="expression" dxfId="71" priority="325">
       <formula>$C12="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="expression" dxfId="72" priority="186">
+    <cfRule type="expression" dxfId="70" priority="186">
       <formula>$C2="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="187">
+    <cfRule type="expression" dxfId="69" priority="187">
       <formula>$C2="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="188">
+    <cfRule type="expression" dxfId="68" priority="188">
       <formula>$C2="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="expression" dxfId="69" priority="185">
+    <cfRule type="expression" dxfId="67" priority="185">
       <formula>$C2="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B23">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="66" priority="18">
       <formula>$C19="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="19">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>$C19="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>$C19="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B23">
-    <cfRule type="expression" dxfId="65" priority="17">
+    <cfRule type="expression" dxfId="63" priority="17">
       <formula>$C19="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>$C24="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>$C24="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>$C24="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="61" priority="13">
+    <cfRule type="expression" dxfId="59" priority="13">
       <formula>$C24="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
-    <cfRule type="expression" dxfId="60" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>$C29="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="11">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>$C29="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="12">
+    <cfRule type="expression" dxfId="56" priority="12">
       <formula>$C29="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>$C29="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>$C29="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>$C29="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>$C29="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="53" priority="5">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>$C29="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A66">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$C44="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$C44="待修改"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>$C44="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A66">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>$C44="待确认"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13262,117 +13664,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" style="3" customWidth="1"/>
     <col min="5" max="5" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="42"/>
+    <col min="6" max="6" width="15.625" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>229</v>
+      <c r="A1" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>355</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.25">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A44" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A45" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>357</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="56.25">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>276</v>
+      <c r="B3" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
@@ -13490,13 +13905,13 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -13579,13 +13994,13 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3">
-        <f t="shared" ref="A45:A100" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A46:A101" si="1">ROW()-1</f>
         <v>45</v>
       </c>
     </row>
@@ -13606,18 +14021,18 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
+      <c r="B50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3">
@@ -13768,89 +14183,89 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="3">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="B78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="3">
+      <c r="B80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -13919,45 +14334,72 @@
         <v>99</v>
       </c>
     </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E100"/>
+  <autoFilter ref="A1:E101"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:D1048576">
-    <cfRule type="expression" dxfId="44" priority="306">
+    <cfRule type="expression" dxfId="42" priority="311">
       <formula>$C2="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="307">
+    <cfRule type="expression" dxfId="41" priority="312">
       <formula>$C2="处理中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="308">
+    <cfRule type="expression" dxfId="40" priority="313">
       <formula>$C2="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D1048576">
-    <cfRule type="expression" dxfId="41" priority="302">
+    <cfRule type="expression" dxfId="39" priority="307">
       <formula>$C2="未投入"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="40" priority="11">
-      <formula>$C77="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12">
-      <formula>$C77="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="13">
-      <formula>$C77="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="37" priority="10">
-      <formula>$C77="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:XFD1 A2:XFD1048576">
-    <cfRule type="expression" dxfId="36" priority="1">
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="38" priority="16">
+      <formula>$C78="待验证"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="17">
+      <formula>$C78="处理中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="18">
+      <formula>$C78="已关闭"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" dxfId="35" priority="15">
+      <formula>$C78="未投入"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1 G1:XFD1048576 A2:E1048576">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>$C1="跟踪中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="expression" dxfId="33" priority="3">
+      <formula>$C2="待验证"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="4">
+      <formula>$C2="处理中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="5">
+      <formula>$C2="已关闭"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>$C2="未投入"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>$C2="跟踪中"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -13972,780 +14414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="8.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="13.5">
-      <c r="A1" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1">
-      <c r="A2" s="3">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" hidden="1">
-      <c r="A3" s="3">
-        <f t="shared" ref="A3:A45" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="1:4" hidden="1">
-      <c r="A4" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" hidden="1">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" hidden="1">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" hidden="1">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="D38" s="28"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="5"/>
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="5"/>
-      <c r="D47" s="28"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="5"/>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="5"/>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="5"/>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="39"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="D55" s="26"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="D57" s="26"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="D59" s="40"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="D60" s="40"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="D61" s="40"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="D62" s="40"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="D63" s="40"/>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="D64" s="40"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="40"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="40"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="40"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="40"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="40"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="31"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="40"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="31"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="31"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="39"/>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="31"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="39"/>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="40"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="40"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="26"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="26"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="26"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="26"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="26"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="26"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="26"/>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="26"/>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="26"/>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" s="26"/>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="26"/>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="26"/>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="26"/>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="41"/>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="34"/>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="41"/>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="41"/>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="41"/>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="41"/>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="41"/>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="41"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="41"/>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="41"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D45">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="未投入"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <dataConsolidate/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B17:B19 D18:D20 C17:D17 A21:D50 B15 A15:A20 D15:D16 A2:D14">
-    <cfRule type="expression" dxfId="35" priority="58">
-      <formula>$C2="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
-      <formula>$C2="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
-      <formula>$C2="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B19 D18:D20 C17:D17 A21:D50 B15 A15:A20 D15:D16 A2:D14">
-    <cfRule type="expression" dxfId="32" priority="57">
-      <formula>$C2="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="31" priority="38">
-      <formula>$C18="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>$C18="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="40">
-      <formula>$C18="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="28" priority="37">
-      <formula>$C18="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="27" priority="34">
-      <formula>$C19="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>$C19="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36">
-      <formula>$C19="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="24" priority="33">
-      <formula>$C19="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>$C16="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>$C16="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28">
-      <formula>$C16="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>$C16="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="19" priority="14">
-      <formula>$C20="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>$C20="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>$C20="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="16" priority="13">
-      <formula>$C20="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="15" priority="10">
-      <formula>$C20="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>$C20="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>$C20="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>$C20="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>$C15="待验证"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>$C15="处理中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>$C15="已关闭"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$C15="未投入"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"未投入,处理中,已关闭"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14759,7 +14431,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="13.5">
       <c r="A1" s="16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>225</v>
@@ -14777,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -14790,13 +14462,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14805,7 +14477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>63</v>
@@ -14818,13 +14490,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -15189,18 +14861,18 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:D33">
-    <cfRule type="expression" dxfId="7" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$C2="待确认"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$C2="处理中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$C2="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D33">
-    <cfRule type="expression" dxfId="4" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$C2="未投入"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15214,7 +14886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
@@ -15234,7 +14906,7 @@
         <v>39</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -15243,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -15252,7 +14924,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15261,7 +14933,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -15270,7 +14942,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -15279,7 +14951,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -15288,7 +14960,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -15297,7 +14969,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -15306,7 +14978,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -15315,7 +14987,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -15324,7 +14996,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -15333,7 +15005,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -15580,18 +15252,18 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:B49">
-    <cfRule type="expression" dxfId="3" priority="560">
+    <cfRule type="expression" dxfId="24" priority="560">
       <formula>#REF!="待验证"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="561">
+    <cfRule type="expression" dxfId="23" priority="561">
       <formula>#REF!="处理中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="562">
+    <cfRule type="expression" dxfId="22" priority="562">
       <formula>#REF!="已关闭"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B49">
-    <cfRule type="expression" dxfId="0" priority="575">
+    <cfRule type="expression" dxfId="21" priority="575">
       <formula>#REF!="未投入"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15600,7 +15272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -15620,73 +15292,73 @@
     <row r="1" spans="1:7">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="45" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="45" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
@@ -15698,12 +15370,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15717,79 +15389,449 @@
     <row r="1" spans="1:7">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="45" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="45" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$C1="已关闭"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$C1="处理中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C1="未投入"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$C1="待安排"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>$E$5:$E$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -15800,7 +15842,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15813,155 +15855,155 @@
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="47"/>
       <c r="B1" s="47" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>313</v>
+      <c r="A2" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="53"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="49" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="50" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" thickBot="1">
       <c r="A5" s="47" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="52" t="s">
-        <v>320</v>
+      <c r="A6" s="57" t="s">
+        <v>294</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>323</v>
+        <v>295</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="57"/>
+        <v>296</v>
+      </c>
+      <c r="C7" s="62"/>
     </row>
     <row r="8" spans="1:3" ht="38.25" thickBot="1">
       <c r="A8" s="47" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" thickBot="1">
       <c r="A9" s="47" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="38.25" thickBot="1">
       <c r="A10" s="47" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="38.25" thickBot="1">
       <c r="A11" s="47" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>337</v>
+      <c r="A12" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>311</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="38.25" thickBot="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="50" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
-      <c r="A14" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>341</v>
+      <c r="A14" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>315</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" thickBot="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="50" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="38.25" thickBot="1">
       <c r="A16" s="47" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
